--- a/StreamRes/ExcelTable/Excel/GameSection.xlsx
+++ b/StreamRes/ExcelTable/Excel/GameSection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>编号</t>
   </si>
   <si>
     <t>名字</t>
@@ -1209,22 +1206,22 @@
     </row>
     <row r="3" ht="28">
       <c r="A3" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="C3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="D3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="F3" s="51" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1232,16 +1229,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="51">
         <v>20001</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="51">
         <v>10001</v>
@@ -1252,10 +1249,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="51">
         <v>20001</v>

--- a/StreamRes/ExcelTable/Excel/GameSection.xlsx
+++ b/StreamRes/ExcelTable/Excel/GameSection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowHeight="18400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -34,6 +34,9 @@
     <t>FirstDynamicSceneIds</t>
   </si>
   <si>
+    <t>DynamicObjectIds</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -55,32 +58,53 @@
     <t>进入章节默认加载的场景</t>
   </si>
   <si>
+    <t>动态物体</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>游戏初始</t>
   </si>
   <si>
     <t>10001|10002|10003|10004</t>
   </si>
   <si>
+    <t>20001</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 10004#2</t>
   </si>
   <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>切换章节</t>
   </si>
   <si>
     <t>10004|10005</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,30 +112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -122,13 +122,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
@@ -169,6 +162,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <scheme val="minor"/>
@@ -208,12 +214,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,7 +240,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,43 +342,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,121 +378,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,21 +431,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,6 +463,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,359 +534,347 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="12" applyFill="1" borderId="5" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="12" applyFill="1" borderId="1" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="13" applyFill="1" borderId="6" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1145,117 +1145,127 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="13.75" customWidth="1" style="50"/>
-    <col min="2" max="2" width="23.5" customWidth="1" style="51"/>
-    <col min="3" max="3" width="39.2" customWidth="1" style="51"/>
-    <col min="4" max="4" width="17.8333333333333" customWidth="1" style="51"/>
-    <col min="5" max="5" width="18.2333333333333" customWidth="1" style="51"/>
-    <col min="6" max="6" width="18.8166666666667" customWidth="1" style="51"/>
-    <col min="7" max="7" width="16.6333333333333" customWidth="1" style="51"/>
-    <col min="8" max="8" width="21.5" customWidth="1" style="51"/>
-    <col min="9" max="16384" width="9" customWidth="1" style="51"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>7</v>
+      <c r="B2" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" ht="28">
-      <c r="A3" s="52" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="E3" s="49" t="s">
         <v>12</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="50">
-        <v>1</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="51">
-        <v>20001</v>
-      </c>
-      <c r="E4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="51">
-        <v>10001</v>
+      <c r="B4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="50">
-        <v>2</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="51">
-        <v>20001</v>
+      <c r="A5" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/GameSection.xlsx
+++ b/StreamRes/ExcelTable/Excel/GameSection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>10001</t>
-  </si>
-  <si>
-    <t>100001</t>
   </si>
   <si>
     <t>2</t>
@@ -1247,25 +1244,25 @@
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="C5" s="49" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/GameSection.xlsx
+++ b/StreamRes/ExcelTable/Excel/GameSection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -43,9 +43,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>名字</t>
-  </si>
-  <si>
     <t>动态加载场景</t>
   </si>
   <si>
@@ -67,25 +64,25 @@
     <t>游戏初始</t>
   </si>
   <si>
-    <t>10001|10002|10003|10004</t>
+    <t>1|2|3|4|5|6</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10004#2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>切换章节</t>
+  </si>
+  <si>
+    <t>10004|10005</t>
   </si>
   <si>
     <t>20001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10004#2</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>切换章节</t>
-  </si>
-  <si>
-    <t>10004|10005</t>
   </si>
   <si>
     <t/>
@@ -1201,68 +1198,68 @@
         <v>0</v>
       </c>
       <c r="B3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="D3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="E3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="F3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="G3" s="49" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="C4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="D4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="E4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="F4" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="49" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="D5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="E5" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" s="49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/GameSection.xlsx
+++ b/StreamRes/ExcelTable/Excel/GameSection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -67,22 +67,19 @@
     <t>1|2|3|4|5|6</t>
   </si>
   <si>
-    <t>21000</t>
+    <t>21000|7</t>
   </si>
   <si>
     <t xml:space="preserve"> 10004#2</t>
   </si>
   <si>
+    <t>2|5</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>切换章节</t>
-  </si>
-  <si>
-    <t>10004|10005</t>
-  </si>
-  <si>
-    <t>20001</t>
   </si>
   <si>
     <t/>
@@ -1241,25 +1238,25 @@
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/GameSection.xlsx
+++ b/StreamRes/ExcelTable/Excel/GameSection.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -31,12 +31,15 @@
     <t>SectionJumpByScene</t>
   </si>
   <si>
-    <t>FirstDynamicSceneIds</t>
+    <t>InitSceneIds</t>
   </si>
   <si>
     <t>DynamicObjectIds</t>
   </si>
   <si>
+    <t>InitedInstructionIds</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>动态物体</t>
+  </si>
+  <si>
+    <t>初始化后执行的指令</t>
   </si>
   <si>
     <t>1</t>
@@ -100,6 +106,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,6 +114,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,12 +122,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,6 +137,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,6 +145,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,6 +153,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,6 +161,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,12 +169,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,6 +184,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,6 +192,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,12 +200,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,30 +215,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -670,153 +695,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1136,127 +1016,146 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="3.41666666666667" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="18.0416666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>8</v>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="49" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="49" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>22</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/GameSection.xlsx
+++ b/StreamRes/ExcelTable/Excel/GameSection.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -62,33 +62,6 @@
   </si>
   <si>
     <t>初始化后执行的指令</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>游戏初始</t>
-  </si>
-  <si>
-    <t>1|2|3|4|5|6</t>
-  </si>
-  <si>
-    <t>21000|7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10004#2</t>
-  </si>
-  <si>
-    <t>2|5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>切换章节</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -106,7 +79,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,7 +86,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,14 +93,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,7 +106,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,7 +113,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,7 +120,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,7 +127,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,14 +134,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,7 +147,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,7 +154,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,14 +161,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,35 +174,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -695,8 +649,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1016,146 +1115,90 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="3.41666666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="18.0416666666667" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="49" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/GameSection.xlsx
+++ b/StreamRes/ExcelTable/Excel/GameSection.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>InitedInstructionIds</t>
   </si>
   <si>
+    <t>EditorInitedInstructionIds</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>初始化后执行的指令</t>
+  </si>
+  <si>
+    <t>编辑器初始化后执行的指令</t>
   </si>
 </sst>
 </file>
@@ -79,6 +85,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,6 +93,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,12 +101,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,6 +116,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,6 +124,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,6 +132,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,6 +140,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,12 +148,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,6 +163,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,6 +171,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,12 +179,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,30 +194,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -649,153 +674,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1115,90 +995,99 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>9</v>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="G3" t="s">
         <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
